--- a/data/Interface_test.xlsx
+++ b/data/Interface_test.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="1060" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="3660" yWindow="1060" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Agent" sheetId="3" r:id="rId1"/>
     <sheet name="Teacher" sheetId="6" r:id="rId2"/>
     <sheet name="Agent_uat" sheetId="7" r:id="rId3"/>
+    <sheet name="Teacher_uat" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="515">
   <si>
     <t>参数</t>
     <rPh sb="0" eb="1">
@@ -638,10 +639,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>[{"userName":"zhengzhouxuesheng8","realName":"zhengzhouxuesheng8","nickName":"xuesheng8","password":"111111"}]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>e/ap/v1/rechargerecords?</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1707,10 +1704,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2019/10/25-17:37:34</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>pass</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1738,23 +1731,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2019/10/25-18:08:47</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/25-18:09:16</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/25-18:09:34</t>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1827,6 +1808,309 @@
   <si>
     <t>2019/10/25-19:02:21</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>changchunlaoshi1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/tp/v3/classrooms/296</t>
+  </si>
+  <si>
+    <t>e/tp/v3/classrooms/296/classtasks</t>
+  </si>
+  <si>
+    <t>e/tp/v3/classrooms/296/progress</t>
+  </si>
+  <si>
+    <t>e/tp/v3/classrooms/296/progressreport</t>
+  </si>
+  <si>
+    <t>e/tp/v3/classrooms/296/quizresultsanalysis</t>
+  </si>
+  <si>
+    <t>e/tp/v3/classrooms/296/quizresultsanalysisreport</t>
+  </si>
+  <si>
+    <t>e/tp/v3/classrooms/296/knowledgesreport</t>
+  </si>
+  <si>
+    <t>e/tp/v3/classrooms/296/students</t>
+  </si>
+  <si>
+    <t>cid=296</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>长春班级-1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/tp/v3/classrooms/296/classtasks/4636</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>单元一课时一4636</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>put</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/tp/v3/lessons/270</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/tp/v3/lessons/270/attachs?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/tp/v3/lessons/270/attachs?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/tp/v3/lessons/270/paperanalysis</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>lessonid=270</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>lessonId=270&amp;classRoomId=296</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>classroom_id=296</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"userName":"changchunxuesheng1","password":"111111"}]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"realName":"changchunlaoshi1","nickName":"laoshi1"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/29-16:03:14</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/29-16:03:36</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/29-16:03:50</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/29-16:22:13</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/29-16:22:34</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/29-16:22:52</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/29-16:23:10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/29-16:23:27</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/29-16:23:44</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/29-16:24:17</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/29-16:24:37</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/29-16:25:04</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/29-16:26:34</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/29-16:26:58</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/29-16:27:24</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/29-16:27:59</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/29-16:28:18</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>500 (该手机已经注册完成，请确认。 )</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/29-16:28:47</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/29-16:29:05</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/29-16:29:24</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/29-16:29:42</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/29-16:30:06</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/29-16:30:27</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/29-16:30:50</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/29-16:31:18</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/29-16:31:51</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/29-16:32:15</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/29-16:32:39</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/29-16:32:51</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/29-16:33:18</t>
   </si>
 </sst>
 </file>
@@ -2330,10 +2614,10 @@
         <v>200</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>223</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>224</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>32</v>
@@ -2365,10 +2649,10 @@
         <v>200</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2397,10 +2681,10 @@
         <v>200</v>
       </c>
       <c r="I4" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2429,10 +2713,10 @@
         <v>200</v>
       </c>
       <c r="I5" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>228</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2449,7 +2733,7 @@
         <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>67</v>
@@ -2461,10 +2745,10 @@
         <v>200</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="65">
@@ -2484,19 +2768,19 @@
         <v>27</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G7" s="5">
         <v>200</v>
       </c>
       <c r="H7" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>333</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>334</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>29</v>
@@ -2519,7 +2803,7 @@
         <v>34</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="5">
@@ -2529,10 +2813,10 @@
         <v>200</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>39</v>
@@ -2552,7 +2836,7 @@
         <v>40</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>41</v>
@@ -2564,10 +2848,10 @@
         <v>200</v>
       </c>
       <c r="I9" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>205</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>206</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>46</v>
@@ -2602,10 +2886,10 @@
         <v>200</v>
       </c>
       <c r="I10" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>207</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>208</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>47</v>
@@ -2637,13 +2921,13 @@
         <v>200</v>
       </c>
       <c r="H11" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="J11" s="5" t="s">
         <v>210</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>211</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>50</v>
@@ -2675,10 +2959,10 @@
         <v>200</v>
       </c>
       <c r="I12" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>212</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>213</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>55</v>
@@ -2713,10 +2997,10 @@
         <v>200</v>
       </c>
       <c r="I13" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>214</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="39">
@@ -2745,10 +3029,10 @@
         <v>200</v>
       </c>
       <c r="I14" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="J14" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2775,10 +3059,10 @@
         <v>200</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L15" s="5"/>
     </row>
@@ -2808,10 +3092,10 @@
         <v>200</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L16" s="5"/>
     </row>
@@ -2838,13 +3122,13 @@
         <v>200</v>
       </c>
       <c r="H17" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="I17" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="J17" s="5" t="s">
         <v>359</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>360</v>
       </c>
       <c r="L17" s="5"/>
     </row>
@@ -2872,10 +3156,10 @@
         <v>200</v>
       </c>
       <c r="I18" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="J18" s="5" t="s">
         <v>361</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>362</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>55</v>
@@ -2910,10 +3194,10 @@
         <v>200</v>
       </c>
       <c r="I19" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="J19" s="5" t="s">
         <v>363</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>364</v>
       </c>
       <c r="L19" s="5"/>
     </row>
@@ -2943,10 +3227,10 @@
         <v>200</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L20" s="5"/>
     </row>
@@ -2976,10 +3260,10 @@
         <v>200</v>
       </c>
       <c r="I21" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="J21" s="5" t="s">
         <v>191</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>192</v>
       </c>
       <c r="L21" s="5"/>
     </row>
@@ -3007,10 +3291,10 @@
         <v>200</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L22" s="5"/>
     </row>
@@ -3038,10 +3322,10 @@
         <v>200</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="143">
@@ -3070,10 +3354,10 @@
         <v>200</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L24" s="5" t="s">
         <v>89</v>
@@ -3105,10 +3389,10 @@
         <v>200</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L25" s="5"/>
     </row>
@@ -3138,10 +3422,10 @@
         <v>200</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L26" s="5"/>
     </row>
@@ -3169,10 +3453,10 @@
         <v>200</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="130">
@@ -3201,10 +3485,10 @@
         <v>200</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L28" s="5" t="s">
         <v>32</v>
@@ -3236,10 +3520,10 @@
         <v>200</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -3266,10 +3550,10 @@
         <v>200</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -3296,10 +3580,10 @@
         <v>200</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -3326,10 +3610,10 @@
         <v>200</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -3358,10 +3642,10 @@
         <v>200</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -3390,10 +3674,10 @@
         <v>200</v>
       </c>
       <c r="I34" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="J34" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -3513,8 +3797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
@@ -3589,14 +3873,14 @@
         <v>200</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>419</v>
+        <v>460</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3616,7 +3900,7 @@
         <v>125</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G3" s="2">
         <v>200</v>
@@ -3625,10 +3909,10 @@
         <v>200</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>421</v>
+        <v>461</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -3638,7 +3922,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
@@ -3647,7 +3931,7 @@
         <v>122</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -3657,10 +3941,10 @@
         <v>200</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>423</v>
+        <v>462</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -3679,20 +3963,20 @@
         <v>122</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
         <v>200</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>128</v>
@@ -3706,7 +3990,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -3715,7 +3999,7 @@
         <v>122</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -3725,10 +4009,10 @@
         <v>200</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -3738,34 +4022,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="F7" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="G7" s="2">
+        <v>200</v>
+      </c>
+      <c r="H7" s="2">
+        <v>200</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="G7" s="2">
-        <v>200</v>
-      </c>
-      <c r="H7" s="2">
-        <v>200</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>338</v>
       </c>
       <c r="L7" s="2"/>
     </row>
@@ -3774,7 +4058,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>22</v>
@@ -3783,7 +4067,7 @@
         <v>122</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -3793,10 +4077,10 @@
         <v>200</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>132</v>
@@ -3810,7 +4094,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>22</v>
@@ -3819,11 +4103,11 @@
         <v>122</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>328</v>
-      </c>
       <c r="G9" s="2">
         <v>200</v>
       </c>
@@ -3831,10 +4115,10 @@
         <v>200</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>388</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>389</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -3844,7 +4128,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>22</v>
@@ -3853,11 +4137,11 @@
         <v>122</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>330</v>
-      </c>
       <c r="G10" s="2">
         <v>200</v>
       </c>
@@ -3865,10 +4149,10 @@
         <v>200</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>390</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>391</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -3878,7 +4162,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>22</v>
@@ -3887,11 +4171,11 @@
         <v>122</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>332</v>
-      </c>
       <c r="G11" s="2">
         <v>200</v>
       </c>
@@ -3899,10 +4183,10 @@
         <v>200</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>392</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>393</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -3912,7 +4196,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>22</v>
@@ -3921,7 +4205,7 @@
         <v>122</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -3931,10 +4215,10 @@
         <v>200</v>
       </c>
       <c r="I12" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>395</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -3944,7 +4228,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>22</v>
@@ -3953,7 +4237,7 @@
         <v>122</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>135</v>
@@ -3965,10 +4249,10 @@
         <v>200</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>397</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -3978,7 +4262,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>22</v>
@@ -3987,7 +4271,7 @@
         <v>122</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -3997,10 +4281,10 @@
         <v>200</v>
       </c>
       <c r="I14" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>398</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>399</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -4010,7 +4294,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>22</v>
@@ -4019,7 +4303,7 @@
         <v>14</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
@@ -4029,10 +4313,10 @@
         <v>200</v>
       </c>
       <c r="I15" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -4042,7 +4326,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>22</v>
@@ -4051,7 +4335,7 @@
         <v>122</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
@@ -4061,10 +4345,10 @@
         <v>200</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>403</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -4074,7 +4358,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>22</v>
@@ -4083,7 +4367,7 @@
         <v>14</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
@@ -4093,10 +4377,10 @@
         <v>200</v>
       </c>
       <c r="I17" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>404</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>405</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -4106,7 +4390,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>22</v>
@@ -4115,7 +4399,7 @@
         <v>122</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>134</v>
@@ -4127,10 +4411,10 @@
         <v>200</v>
       </c>
       <c r="I18" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>406</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>407</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -4140,7 +4424,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>22</v>
@@ -4149,7 +4433,7 @@
         <v>14</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
@@ -4159,10 +4443,10 @@
         <v>200</v>
       </c>
       <c r="I19" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>408</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>409</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -4191,15 +4475,15 @@
         <v>200</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" ht="52">
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4215,9 +4499,7 @@
       <c r="E21" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>140</v>
-      </c>
+      <c r="F21" s="3"/>
       <c r="G21" s="2">
         <v>200</v>
       </c>
@@ -4225,10 +4507,10 @@
         <v>200</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>411</v>
+        <v>511</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -4238,7 +4520,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>22</v>
@@ -4247,10 +4529,10 @@
         <v>10</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G22" s="2">
         <v>200</v>
@@ -4259,10 +4541,10 @@
         <v>200</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -4272,31 +4554,31 @@
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>150</v>
-      </c>
       <c r="G23" s="2">
         <v>200</v>
       </c>
       <c r="H23" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -4306,19 +4588,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="G24" s="2">
         <v>200</v>
@@ -4326,7 +4608,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -4336,19 +4618,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>137</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G25" s="2">
         <v>200</v>
@@ -4364,35 +4646,35 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="G26" s="2">
+        <v>200</v>
+      </c>
+      <c r="H26" s="2">
+        <v>200</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="G26" s="2">
-        <v>200</v>
-      </c>
-      <c r="H26" s="2">
-        <v>200</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>435</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="26">
@@ -4400,7 +4682,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>22</v>
@@ -4409,11 +4691,11 @@
         <v>40</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>344</v>
-      </c>
       <c r="G27" s="2">
         <v>200</v>
       </c>
@@ -4421,10 +4703,10 @@
         <v>200</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -4434,7 +4716,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>22</v>
@@ -4443,7 +4725,7 @@
         <v>14</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="2">
@@ -4452,7 +4734,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -4462,7 +4744,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>22</v>
@@ -4471,7 +4753,7 @@
         <v>14</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="2">
@@ -4481,10 +4763,10 @@
         <v>200</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -4494,7 +4776,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>22</v>
@@ -4503,11 +4785,11 @@
         <v>20</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>348</v>
-      </c>
       <c r="G30" s="2">
         <v>200</v>
       </c>
@@ -4515,10 +4797,10 @@
         <v>200</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -4690,8 +4972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
@@ -4751,7 +5033,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C2" t="s">
         <v>36</v>
@@ -4760,25 +5042,25 @@
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" s="5">
+        <v>200</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>151</v>
-      </c>
-      <c r="G2" s="5">
-        <v>200</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -4786,31 +5068,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C3" t="s">
         <v>36</v>
       </c>
       <c r="D3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G3" s="5">
         <v>200</v>
       </c>
       <c r="H3" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>369</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="26.5">
@@ -4818,37 +5100,37 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="5">
+        <v>200</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="G4" s="5">
-        <v>200</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="K4" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -4856,19 +5138,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G5" s="5">
         <v>200</v>
@@ -4877,10 +5159,10 @@
         <v>200</v>
       </c>
       <c r="I5" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>253</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -4888,19 +5170,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G6" s="5">
         <v>200</v>
@@ -4909,10 +5191,10 @@
         <v>200</v>
       </c>
       <c r="I6" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>255</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="65">
@@ -4920,7 +5202,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C7" t="s">
         <v>36</v>
@@ -4929,28 +5211,28 @@
         <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G7" s="5">
+        <v>200</v>
+      </c>
+      <c r="H7" s="5">
+        <v>200</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="G7" s="5">
-        <v>200</v>
-      </c>
-      <c r="H7" s="5">
-        <v>200</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>164</v>
-      </c>
       <c r="L7" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="88" customHeight="1">
@@ -4958,13 +5240,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>38</v>
@@ -4977,10 +5259,10 @@
         <v>200</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>39</v>
@@ -4991,7 +5273,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C9" t="s">
         <v>36</v>
@@ -5000,28 +5282,28 @@
         <v>40</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="5">
+        <v>200</v>
+      </c>
+      <c r="H9" s="5">
+        <v>200</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="G9" s="5">
-        <v>200</v>
-      </c>
-      <c r="H9" s="5">
-        <v>200</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="K9" s="5" t="s">
+      <c r="L9" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="39.5">
@@ -5029,7 +5311,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C10" t="s">
         <v>36</v>
@@ -5038,11 +5320,11 @@
         <v>10</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>172</v>
-      </c>
       <c r="G10" s="5">
         <v>200</v>
       </c>
@@ -5050,16 +5332,16 @@
         <v>200</v>
       </c>
       <c r="I10" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>277</v>
-      </c>
       <c r="K10" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="L10" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="26.5">
@@ -5070,31 +5352,31 @@
         <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G11" s="5">
+        <v>200</v>
+      </c>
+      <c r="H11" s="5">
+        <v>200</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="G11" s="5">
-        <v>200</v>
-      </c>
-      <c r="H11" s="5">
-        <v>200</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="26.5">
@@ -5102,19 +5384,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G12" s="5">
         <v>200</v>
@@ -5123,16 +5405,16 @@
         <v>200</v>
       </c>
       <c r="I12" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>280</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>281</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>55</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -5140,7 +5422,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
@@ -5152,7 +5434,7 @@
         <v>59</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G13" s="5">
         <v>200</v>
@@ -5161,10 +5443,10 @@
         <v>200</v>
       </c>
       <c r="I13" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>282</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="39">
@@ -5172,7 +5454,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C14" t="s">
         <v>36</v>
@@ -5181,10 +5463,10 @@
         <v>20</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G14" s="5">
         <v>200</v>
@@ -5193,10 +5475,10 @@
         <v>200</v>
       </c>
       <c r="I14" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="J14" s="5" t="s">
         <v>284</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -5207,10 +5489,10 @@
         <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>65</v>
@@ -5223,10 +5505,10 @@
         <v>200</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L15" s="5"/>
     </row>
@@ -5247,7 +5529,7 @@
         <v>59</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G16" s="5">
         <v>200</v>
@@ -5256,10 +5538,10 @@
         <v>200</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L16" s="5"/>
     </row>
@@ -5271,10 +5553,10 @@
         <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>68</v>
@@ -5289,10 +5571,10 @@
         <v>200</v>
       </c>
       <c r="I17" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>265</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>266</v>
       </c>
       <c r="L17" s="5"/>
     </row>
@@ -5304,10 +5586,10 @@
         <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>108</v>
@@ -5320,16 +5602,16 @@
         <v>200</v>
       </c>
       <c r="I18" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="J18" s="5" t="s">
         <v>267</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>268</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>55</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -5340,10 +5622,10 @@
         <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>69</v>
@@ -5358,10 +5640,10 @@
         <v>200</v>
       </c>
       <c r="I19" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="J19" s="5" t="s">
         <v>269</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>270</v>
       </c>
       <c r="L19" s="5"/>
     </row>
@@ -5373,10 +5655,10 @@
         <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>76</v>
@@ -5391,10 +5673,10 @@
         <v>200</v>
       </c>
       <c r="I20" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J20" s="5" t="s">
         <v>271</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>272</v>
       </c>
       <c r="L20" s="5"/>
     </row>
@@ -5424,10 +5706,10 @@
         <v>200</v>
       </c>
       <c r="I21" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="J21" s="5" t="s">
         <v>235</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>236</v>
       </c>
       <c r="L21" s="5"/>
     </row>
@@ -5439,10 +5721,10 @@
         <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>82</v>
@@ -5455,10 +5737,10 @@
         <v>200</v>
       </c>
       <c r="I22" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="J22" s="5" t="s">
         <v>237</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>238</v>
       </c>
       <c r="L22" s="5"/>
     </row>
@@ -5473,7 +5755,7 @@
         <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>83</v>
@@ -5486,10 +5768,10 @@
         <v>200</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="130">
@@ -5497,34 +5779,34 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C24" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D24" t="s">
         <v>40</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="5">
+        <v>200</v>
+      </c>
+      <c r="H24" s="5">
+        <v>200</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="L24" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="G24" s="5">
-        <v>200</v>
-      </c>
-      <c r="H24" s="5">
-        <v>200</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="26">
@@ -5535,13 +5817,13 @@
         <v>93</v>
       </c>
       <c r="C25" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D25" t="s">
         <v>40</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>92</v>
@@ -5553,10 +5835,10 @@
         <v>200</v>
       </c>
       <c r="I25" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="J25" s="5" t="s">
         <v>242</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>243</v>
       </c>
       <c r="L25" s="5"/>
     </row>
@@ -5571,13 +5853,13 @@
         <v>36</v>
       </c>
       <c r="D26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G26" s="5">
         <v>200</v>
@@ -5586,10 +5868,10 @@
         <v>200</v>
       </c>
       <c r="I26" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="J26" s="5" t="s">
         <v>244</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>245</v>
       </c>
       <c r="L26" s="5"/>
     </row>
@@ -5616,7 +5898,7 @@
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="130">
@@ -5624,7 +5906,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C28" t="s">
         <v>36</v>
@@ -5633,25 +5915,25 @@
         <v>40</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="G28" s="5">
+        <v>200</v>
+      </c>
+      <c r="H28" s="5">
+        <v>200</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="L28" s="5" t="s">
         <v>184</v>
-      </c>
-      <c r="G28" s="5">
-        <v>200</v>
-      </c>
-      <c r="H28" s="5">
-        <v>200</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="26">
@@ -5662,17 +5944,17 @@
         <v>104</v>
       </c>
       <c r="C29" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D29" t="s">
+        <v>185</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>188</v>
-      </c>
       <c r="G29" s="5">
         <v>200</v>
       </c>
@@ -5680,10 +5962,10 @@
         <v>200</v>
       </c>
       <c r="I29" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="J29" s="5" t="s">
         <v>249</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -5694,7 +5976,7 @@
         <v>106</v>
       </c>
       <c r="C30" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D30" t="s">
         <v>10</v>
@@ -5710,10 +5992,10 @@
         <v>200</v>
       </c>
       <c r="I30" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="J30" s="5" t="s">
         <v>251</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -5727,7 +6009,7 @@
         <v>36</v>
       </c>
       <c r="D31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>113</v>
@@ -5740,10 +6022,10 @@
         <v>200</v>
       </c>
       <c r="I31" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="J31" s="5" t="s">
         <v>259</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -5751,10 +6033,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C32" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D32" t="s">
         <v>10</v>
@@ -5770,10 +6052,10 @@
         <v>200</v>
       </c>
       <c r="I32" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="J32" s="5" t="s">
         <v>261</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -5784,7 +6066,7 @@
         <v>120</v>
       </c>
       <c r="C33" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D33" t="s">
         <v>20</v>
@@ -5793,7 +6075,7 @@
         <v>115</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G33" s="5">
         <v>200</v>
@@ -5802,10 +6084,10 @@
         <v>200</v>
       </c>
       <c r="I33" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="J33" s="5" t="s">
         <v>263</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -5834,10 +6116,10 @@
         <v>200</v>
       </c>
       <c r="I34" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="J34" s="5" t="s">
         <v>286</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -5961,4 +6243,1175 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
+  <cols>
+    <col min="2" max="2" width="27.61328125" customWidth="1"/>
+    <col min="3" max="3" width="13.61328125" customWidth="1"/>
+    <col min="4" max="4" width="16.3828125" customWidth="1"/>
+    <col min="5" max="5" width="47.3046875" customWidth="1"/>
+    <col min="6" max="6" width="25.921875" customWidth="1"/>
+    <col min="10" max="10" width="28.3046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="14">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2">
+        <v>200</v>
+      </c>
+      <c r="H2" s="2">
+        <v>200</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="2">
+        <v>200</v>
+      </c>
+      <c r="H3" s="2">
+        <v>200</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2">
+        <v>200</v>
+      </c>
+      <c r="H4" s="2">
+        <v>200</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2">
+        <v>200</v>
+      </c>
+      <c r="H5" s="2">
+        <v>200</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2">
+        <v>200</v>
+      </c>
+      <c r="H6" s="2">
+        <v>200</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="G7" s="2">
+        <v>200</v>
+      </c>
+      <c r="H7" s="2">
+        <v>200</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2">
+        <v>200</v>
+      </c>
+      <c r="H8" s="2">
+        <v>200</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="G9" s="2">
+        <v>200</v>
+      </c>
+      <c r="H9" s="2">
+        <v>200</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G10" s="2">
+        <v>200</v>
+      </c>
+      <c r="H10" s="2">
+        <v>200</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="G11" s="2">
+        <v>200</v>
+      </c>
+      <c r="H11" s="2">
+        <v>200</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2">
+        <v>200</v>
+      </c>
+      <c r="H12" s="2">
+        <v>200</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G13" s="2">
+        <v>200</v>
+      </c>
+      <c r="H13" s="2">
+        <v>200</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2">
+        <v>200</v>
+      </c>
+      <c r="H14" s="2">
+        <v>200</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2">
+        <v>200</v>
+      </c>
+      <c r="H15" s="2">
+        <v>200</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2">
+        <v>200</v>
+      </c>
+      <c r="H16" s="2">
+        <v>200</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2">
+        <v>200</v>
+      </c>
+      <c r="H17" s="2">
+        <v>200</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="G18" s="2">
+        <v>200</v>
+      </c>
+      <c r="H18" s="2">
+        <v>200</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2">
+        <v>200</v>
+      </c>
+      <c r="H19" s="2">
+        <v>200</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2">
+        <v>200</v>
+      </c>
+      <c r="H20" s="2">
+        <v>200</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="2">
+        <v>200</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="G22" s="2">
+        <v>200</v>
+      </c>
+      <c r="H22" s="2">
+        <v>200</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" ht="104">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G23" s="2">
+        <v>200</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" ht="26">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="G24" s="2">
+        <v>200</v>
+      </c>
+      <c r="H24" s="2">
+        <v>200</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G25" s="2">
+        <v>200</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" ht="26">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="G26" s="2">
+        <v>200</v>
+      </c>
+      <c r="H26" s="2">
+        <v>200</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="26">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="G27" s="2">
+        <v>200</v>
+      </c>
+      <c r="H27" s="2">
+        <v>200</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="2">
+        <v>200</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="2">
+        <v>200</v>
+      </c>
+      <c r="H29" s="2">
+        <v>200</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="1:12" ht="39">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="G30" s="2">
+        <v>200</v>
+      </c>
+      <c r="H30" s="2">
+        <v>200</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="2:12">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="2:12">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="2:12">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="2:12">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="2:12">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="2:12">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="2:12">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="2:12">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="2:12">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/Interface_test.xlsx
+++ b/data/Interface_test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="1060" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="3660" yWindow="1060" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Agent" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="595">
   <si>
     <t>参数</t>
     <rPh sb="0" eb="1">
@@ -241,10 +241,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>{"contact":"一级客户1","email":"13323132313@qq.com","mobile":"13323132313","address":"二七区","nickName":"一级客户1","realName":"一级客户01","province":"41","city":"4101","district":"410103"}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">一级客户01-wanghn1j-01-1
 </t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -310,10 +306,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>tid=31</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>e/ap/v1/permits?</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -507,10 +499,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>pageIndex=1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>e/ap/v1/products/111</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -745,10 +733,6 @@
   </si>
   <si>
     <t>e/ap/v1/tenants/268</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"contact":"吉林一级客户","email":"13323132313@qq.com","mobile":"13323132313","address":"南关","nickName":"吉一客户","realName":"吉林一级客户","province":"22","city":"2201","district":"220102"}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -847,60 +831,920 @@
     <t>pass</t>
   </si>
   <si>
-    <t>2019/10/24-15:44:45</t>
-  </si>
-  <si>
-    <t>2019/10/24-15:44:57</t>
-  </si>
-  <si>
-    <t>2019/10/24-15:45:34</t>
-  </si>
-  <si>
-    <t>2019/10/24-15:45:48</t>
-  </si>
-  <si>
-    <t>2019/10/24-15:46:02</t>
-  </si>
-  <si>
-    <t>2019/10/24-15:46:35</t>
-  </si>
-  <si>
-    <t>2019/10/24-15:46:48</t>
-  </si>
-  <si>
-    <t>2019/10/24-15:47:07</t>
-  </si>
-  <si>
-    <t>2019/10/24-15:50:20</t>
-  </si>
-  <si>
-    <t>2019/10/24-15:51:35</t>
-  </si>
-  <si>
-    <t>2019/10/24-15:51:54</t>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/24-16:11:59</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/24-16:12:38</t>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/ap/v1/tenants</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/24-17:34:19</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/24-17:34:35</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/24-17:34:50</t>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/24-17:35:12</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/24-17:35:30</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/24-17:35:50</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/24-17:36:02</t>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/24-17:36:09</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/24-17:36:30</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/24-17:36:42</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/24-17:37:45</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/24-17:38:04</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/24-17:38:15</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/24-17:38:44</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/24-17:38:59</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/24-17:39:18</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/24-17:39:28</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/24-17:39:43</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/24-17:39:54</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/24-17:40:07</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/24-17:40:18</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/24-17:40:24</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/24-17:40:44</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/24-17:40:57</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/24-17:41:31</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/24-17:41:40</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/24-17:41:52</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/24-17:42:15</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/24-17:42:26</t>
+  </si>
+  <si>
+    <t>2019/10/24-17:42:41</t>
+  </si>
+  <si>
+    <t>查询下属代理商列表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询下属代理商账户列表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询下属代理商转课时记录</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询代理商转课时的充值记录</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>给二级代理商转课时</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增客户</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看客户详情</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询客户下可见商品详情（附带租户的课数）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看客户购买课程最近十次操作记录</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户购买课时</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改客户管理员</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改代理商管理员</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页查询代理商充值记录</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>status_code</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>status_code</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>status_code</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>status_code</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>status_code</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>status_code</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>status_code</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/ap/v1/agentsclass?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/ap/v1/classrecord</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/ap/v1/exproducts?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/ap/v1/permits</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhengzhoulaoshi5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/tp/v3/classrooms/37</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/tp/v3/classrooms/37/classtasks</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/tp/v3/lessons/360</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/tp/v3/lessons/360/paperanalysis</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/tp/v3/activities?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/tp/v3/classrooms/37/progress</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/tp/v3/classrooms/37/quizresultsanalysis</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/tp/v3/knowledges?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/tp/v3/students?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/tp/v3/classrooms/37/students</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/tp/v3/users/password</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/ap/v1/tenants/31</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/tp/v3/lessons/360/attachs?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>attachType=workbook</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/tp/v3/lessons/360/attachs?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>attachType=vedio</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/tp/v3/lessons/360/attachs?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>attachType=presentation</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>课时锁定</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/tp/v3/classrooms/37/classtasks/482</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>put</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>单元一课时一482</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"lockStatus":1}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/tp/v3/profile</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>put</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"realName":"zhengzhoulaoshi5","nickName":"laoshi5"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/tp/v3/changepassword</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"lastPassword":"111111","password":"111111"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/tp/v3/checkmobile/13146240103</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/tp/v3/feedbackuser</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/tp/v3/feedbacks</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"学生的建议","phone":"13323132313","content":"学生的建议13323132313"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>学情分析-掌握知识点</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌握知识点导出报表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/tp/v3/classrooms/37/knowledgesreport</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/tp/v3/classrooms/37/quizresultsanalysisreport</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>学情分析-测验结果</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>测验结果导出报表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>学情分析-上课进度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>上课进度导出报表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/tp/v3/classrooms/37/progressreport</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>401 (无效的token)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/25-15:50:50</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>401 (无效的token)</t>
+  </si>
+  <si>
+    <t>fail</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/25-15:51:03</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/25-15:51:12</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看消息列表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/tp/v3/notice</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询班级下的课程目录（包含章节和课时）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看课时详情</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看课时详情（老师指导手册）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看课时详情（演示视频）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看课时详情（演示PPT）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看课时详情（课堂测验解析）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看课时详情（学生任务进度）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageIndex=1&amp;pageSize=10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人信息修改密码</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>500 (用户名为 [zhengzhouxuesheng1, zhengzhouxuesheng2]等学生已添加，无需重复添加)</t>
+  </si>
+  <si>
+    <t>fail</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/25-17:38:04</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改个人基本信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取手机验证码</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询央馆用户的userid</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>老师反馈信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/25-18:47:32</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>changchunlaoshi1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/tp/v3/classrooms/296</t>
+  </si>
+  <si>
+    <t>e/tp/v3/classrooms/296/classtasks</t>
+  </si>
+  <si>
+    <t>e/tp/v3/classrooms/296/progress</t>
+  </si>
+  <si>
+    <t>e/tp/v3/classrooms/296/progressreport</t>
+  </si>
+  <si>
+    <t>e/tp/v3/classrooms/296/quizresultsanalysis</t>
+  </si>
+  <si>
+    <t>e/tp/v3/classrooms/296/quizresultsanalysisreport</t>
+  </si>
+  <si>
+    <t>e/tp/v3/classrooms/296/knowledgesreport</t>
+  </si>
+  <si>
+    <t>e/tp/v3/classrooms/296/students</t>
+  </si>
+  <si>
+    <t>cid=296</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>长春班级-1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/tp/v3/classrooms/296/classtasks/4636</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>单元一课时一4636</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>put</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/tp/v3/lessons/270</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/tp/v3/lessons/270/attachs?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/tp/v3/lessons/270/attachs?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/tp/v3/lessons/270/paperanalysis</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>lessonid=270</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>lessonId=270&amp;classRoomId=296</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>classroom_id=296</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"userName":"changchunxuesheng1","password":"111111"}]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"realName":"changchunlaoshi1","nickName":"laoshi1"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/29-16:22:13</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/29-16:22:34</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/29-16:22:52</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/29-16:23:10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/29-16:23:27</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/29-16:23:44</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/29-16:24:17</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/29-16:24:37</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/29-16:25:04</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/29-16:26:34</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/29-16:26:58</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/29-16:27:24</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/29-16:28:18</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>500 (该手机已经注册完成，请确认。 )</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/29-16:28:47</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/29-16:29:05</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/29-16:29:24</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/29-16:29:42</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/29-16:30:06</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/29-16:30:27</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/29-16:30:50</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/29-16:31:18</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/29-16:31:51</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/29-16:32:15</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/29-16:32:51</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/29-16:33:18</t>
+  </si>
+  <si>
+    <t>fail</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/10/29-18:23:20</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhengzhoulaoshi5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"contact":"一级客户1","email":"13323132313@qq.com","mobile":"13323132313","address":"二七区","nickName":"一级客户1","realName":"一级客户01","province":"41","city":"4101","district":"410103","schoolType": "7"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/11/11-17:41:48</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/11/11-17:41:55</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/11/11-17:42:04</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -912,636 +1756,246 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2019/10/24-16:12:59</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/24-16:13:41</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/24-16:14:00</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/24-16:14:35</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/24-16:15:10</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/24-16:15:33</t>
-  </si>
-  <si>
-    <t>2019/10/24-16:15:50</t>
-  </si>
-  <si>
-    <t>{"fromOrderId":"191021114456594","fromRechargeRecordId":"180","toAgentId":"82","classes":"1","fromDate":"2019-10-21 00:00:00","toDate":"2019-11-30","comment":"1"}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/24-16:28:35</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/24-16:28:53</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/24-16:29:14</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/24-16:29:39</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/24-16:30:02</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/24-16:55:14</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/24-16:56:36</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>e/ap/v1/tenants</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/24-17:27:42</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/24-17:34:19</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/24-17:34:35</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/24-17:34:50</t>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/24-17:35:12</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/24-17:35:30</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/24-17:35:50</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/24-17:36:02</t>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/24-17:36:09</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/24-17:36:30</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/24-17:36:42</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/24-17:37:45</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/24-17:38:04</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/24-17:38:15</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/24-17:38:44</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/24-17:38:59</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/24-17:39:18</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/24-17:39:28</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/24-17:39:43</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/24-17:39:54</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/24-17:40:07</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/24-17:40:18</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/24-17:40:24</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/24-17:40:44</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/24-17:40:57</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/24-17:41:31</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/24-17:41:40</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/24-17:41:52</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/24-17:42:15</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/24-17:42:26</t>
-  </si>
-  <si>
-    <t>2019/10/24-17:42:41</t>
-  </si>
-  <si>
-    <t>查询下属代理商列表</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询下属代理商账户列表</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询下属代理商转课时记录</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询代理商转课时的充值记录</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>给二级代理商转课时</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增客户</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看客户详情</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询客户下可见商品详情（附带租户的课数）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看客户购买课程最近十次操作记录</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户购买课时</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改客户管理员</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改代理商管理员</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页查询代理商充值记录</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>status_code</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>status_code</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>status_code</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>status_code</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>status_code</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>status_code</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>status_code</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>e/ap/v1/agentsclass?</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>e/ap/v1/classrecord</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>e/ap/v1/exproducts?</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>e/ap/v1/permits</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhengzhoulaoshi5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>e/tp/v3/classrooms/37</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>e/tp/v3/classrooms/37/classtasks</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>e/tp/v3/lessons/360</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>e/tp/v3/lessons/360/paperanalysis</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>e/tp/v3/activities?</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>e/tp/v3/classrooms/37/progress</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>e/tp/v3/classrooms/37/quizresultsanalysis</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>e/tp/v3/knowledges?</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>e/tp/v3/students?</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>e/tp/v3/classrooms/37/students</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>e/tp/v3/users/password</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>e/ap/v1/tenants/31</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>e/tp/v3/lessons/360/attachs?</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>attachType=workbook</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>e/tp/v3/lessons/360/attachs?</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>attachType=vedio</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>e/tp/v3/lessons/360/attachs?</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>attachType=presentation</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>401 (您当前登录的用户，没有权限访问该系统，请确认后重新登录。)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/24-20:06:54</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>课时锁定</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>e/tp/v3/classrooms/37/classtasks/482</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>put</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>单元一课时一482</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"lockStatus":1}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>e/tp/v3/profile</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>put</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"realName":"zhengzhoulaoshi5","nickName":"laoshi5"}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>e/tp/v3/changepassword</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"lastPassword":"111111","password":"111111"}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>e/tp/v3/checkmobile/13146240103</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>e/tp/v3/feedbackuser</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>e/tp/v3/feedbacks</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"学生的建议","phone":"13323132313","content":"学生的建议13323132313"}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>学情分析-掌握知识点</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>掌握知识点导出报表</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>e/tp/v3/classrooms/37/knowledgesreport</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>e/tp/v3/classrooms/37/quizresultsanalysisreport</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>学情分析-测验结果</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>测验结果导出报表</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>学情分析-上课进度</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>上课进度导出报表</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>e/tp/v3/classrooms/37/progressreport</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>400 (参数绑定异常 agentType)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>2019/11/11-17:42:13</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/11/11-17:42:23</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/11/11-17:42:32</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/11/11-17:42:42</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/11/11-17:42:52</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/11/11-17:43:02</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/11/11-17:43:12</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageIndex=1&amp;agentType=1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/11/11-18:03:06</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/11/11-18:03:17</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"fromOrderId":"191111173224242","fromRechargeRecordId":"347","toAgentId":"82","classes":"1","fromDate":"2019-11-01 00:00:00","toDate":"2019-12-31","comment":"1"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/11/11-18:11:54</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/11/11-18:12:07</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/11/11-18:12:20</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/11/11-18:12:34</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/11/11-18:12:47</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/11/11-18:13:01</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/11/11-18:13:15</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/11/11-18:13:28</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/11/11-18:13:43</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/11/11-18:17:28</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/11/11-18:17:43</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/11/11-18:17:59</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/11/11-18:18:11</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/11/11-18:18:27</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/11/11-18:18:45</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/11/11-18:19:05</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/11/11-18:19:17</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/11/11-18:19:44</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/11/11-18:20:00</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"contact":"吉林一级客户","email":"13323132313@qq.com","mobile":"13323132313","address":"南关","nickName":"吉一客户","realName":"吉林一级客户","province":"22","city":"2201","district":"220102","schoolType": "7"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>tid=31&amp;agentType=1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>tid=268&amp;agentType=1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>401 (当前登录用户已失效，请重新登录)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>401 (当前登录用户已失效，请重新登录)</t>
   </si>
   <si>
     <t>fail</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2019/10/25-15:35:58</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/25-15:36:16</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/25-15:36:26</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/25-15:36:39</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>401 (无效的token)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/25-15:50:50</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>401 (无效的token)</t>
-  </si>
-  <si>
     <t>fail</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2019/10/25-15:51:03</t>
+    <t>2019/11/18-16:23:38</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/11/18-16:23:52</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1549,472 +2003,31 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2019/10/25-15:51:12</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看消息列表</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>e/tp/v3/notice</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询班级下的课程目录（包含章节和课时）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看课时详情</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看课时详情（老师指导手册）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看课时详情（演示视频）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看课时详情（演示PPT）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看课时详情（课堂测验解析）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看课时详情（学生任务进度）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pageIndex=1&amp;pageSize=10</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人信息修改密码</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/25-17:32:56</t>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/25-17:34:56</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/25-17:35:08</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/25-17:35:17</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/25-17:35:27</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/25-17:35:36</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/25-17:36:00</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/25-17:36:10</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/25-17:36:21</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/25-17:36:31</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/25-17:36:41</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/25-17:36:51</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/25-17:37:04</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/25-17:37:52</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>500 (用户名为 [zhengzhouxuesheng1, zhengzhouxuesheng2]等学生已添加，无需重复添加)</t>
+    <t>2019/11/18-16:24:05</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/11/18-16:24:37</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>fail</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2019/10/25-17:38:04</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/25-17:38:16</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>500 (I/O error on POST request for "http://agent-server-service:8080/product": Connect to agent-server-service:8080 [agent-server-service/10.100.26.252] failed: connect timed out; nested exception is org.apache.http.conn.ConnectTimeoutException: Connect to agent-server-service:8080 [agent-server-service/10.100.26.252] failed: connect timed out)</t>
+    <t>2019/11/18-16:24:44</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>fail</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2019/10/25-18:10:10</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/25-18:14:16</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/25-18:14:44</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改个人基本信息</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取手机验证码</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询央馆用户的userid</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>老师反馈信息</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/25-18:45:47</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/25-18:47:10</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/25-18:47:32</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/25-18:47:54</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/25-19:02:21</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>changchunlaoshi1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>e/tp/v3/classrooms/296</t>
-  </si>
-  <si>
-    <t>e/tp/v3/classrooms/296/classtasks</t>
-  </si>
-  <si>
-    <t>e/tp/v3/classrooms/296/progress</t>
-  </si>
-  <si>
-    <t>e/tp/v3/classrooms/296/progressreport</t>
-  </si>
-  <si>
-    <t>e/tp/v3/classrooms/296/quizresultsanalysis</t>
-  </si>
-  <si>
-    <t>e/tp/v3/classrooms/296/quizresultsanalysisreport</t>
-  </si>
-  <si>
-    <t>e/tp/v3/classrooms/296/knowledgesreport</t>
-  </si>
-  <si>
-    <t>e/tp/v3/classrooms/296/students</t>
-  </si>
-  <si>
-    <t>cid=296</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>长春班级-1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>e/tp/v3/classrooms/296/classtasks/4636</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>单元一课时一4636</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>put</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>e/tp/v3/lessons/270</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>e/tp/v3/lessons/270/attachs?</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>e/tp/v3/lessons/270/attachs?</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>e/tp/v3/lessons/270/paperanalysis</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>lessonid=270</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>lessonId=270&amp;classRoomId=296</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>classroom_id=296</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"userName":"changchunxuesheng1","password":"111111"}]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"realName":"changchunlaoshi1","nickName":"laoshi1"}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/29-16:03:14</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/29-16:03:36</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/29-16:03:50</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/29-16:22:13</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/29-16:22:34</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/29-16:22:52</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/29-16:23:10</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/29-16:23:27</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/29-16:23:44</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/29-16:24:17</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/29-16:24:37</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/29-16:25:04</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/29-16:26:34</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/29-16:26:58</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/29-16:27:24</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/29-16:27:59</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/29-16:28:18</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>500 (该手机已经注册完成，请确认。 )</t>
+    <t>2019/11/18-16:25:02</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>401 (当前登录用户已失效，请重新登录)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -2022,95 +2035,416 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2019/10/29-16:28:47</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/29-16:29:05</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/29-16:29:24</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/29-16:29:42</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/29-16:30:06</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/29-16:30:27</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/29-16:30:50</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/29-16:31:18</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/29-16:31:51</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/29-16:32:15</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/29-16:32:39</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/29-16:32:51</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/10/29-16:33:18</t>
+    <t>2019/11/18-16:25:40</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>401 (当前登录用户已失效，请重新登录)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/11/18-16:26:06</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>401 (当前登录用户已失效，请重新登录)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/11/18-16:26:24</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>401 (当前登录用户已失效，请重新登录)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/11/18-16:26:56</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>401 (当前登录用户已失效，请重新登录)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/11/18-16:27:13</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>401 (当前登录用户已失效，请重新登录)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/11/18-16:27:31</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>401 (当前登录用户已失效，请重新登录)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/11/18-16:28:03</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>401 (当前登录用户已失效，请重新登录)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/11/18-16:28:40</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>401 (当前登录用户已失效，请重新登录)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/11/18-16:29:06</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/11/18-16:29:46</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>401 (当前登录用户已失效，请重新登录)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/11/18-16:30:07</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>401 (当前登录用户已失效，请重新登录)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/11/18-16:30:33</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>401 (当前登录用户已失效，请重新登录)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/11/18-16:30:53</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>401 (当前登录用户已失效，请重新登录)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/11/18-16:31:13</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>401 (当前登录用户已失效，请重新登录)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/11/18-16:31:34</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>401 (当前登录用户已失效，请重新登录)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/11/18-16:32:00</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>401 (当前登录用户已失效，请重新登录)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/11/18-16:32:17</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>401 (当前登录用户已失效，请重新登录)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/11/18-16:32:35</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>401 (当前登录用户已失效，请重新登录)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/11/18-16:32:53</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>401 (当前登录用户已失效，请重新登录)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/11/18-16:33:13</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计注册用户数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增注册用户数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增激活学校数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增激活用户数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>7日 | 每日新增用户数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增注册学校数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增付费用户数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计注册学校数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增付费学校数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>7日 | 用户角色分布</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/12/04-15:10:30</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/12/04-15:10:45</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/ap/v1/report</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/ap/v1/exportagents</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理商excel导出</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"eventId": 1008, "startDate": "2019-11-27", "endDate": "2019-12-03", "type": 5}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"eventId": 1010, "startDate": "2019-11-27", "endDate": "2019-12-03", "type": 7}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"eventId": 1007, "startDate": "", "endDate": "2019-12-03", "type": 4}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/12/04-17:25:30</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/12/04-17:25:54</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"eventId": 1004, "startDate": "2019-11-27", "endDate": "2019-12-03", "type": 8, "params": [{"param": "userRole", "value": ""}]}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/12/04-17:26:17</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"eventId": 1005, "startDate": "2019-11-27", "endDate": "2019-12-03", "type": 9, "params": [{"param": "registerType", "value": 1}]}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/12/04-17:26:41</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/12/04-17:27:01</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"eventId": 1002, "startDate": "", "endDate": "2019-12-03", "type": 0}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/12/04-17:34:45</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"eventId": 1002, "startDate": "2019-11-27", "endDate": "2019-12-03", "type": 1}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/12/04-17:35:17</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"eventId": 1001, "startDate": "2019-11-27", "endDate": "2019-12-03", "type": 2}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/12/04-17:35:44</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"eventId": 1003, "startDate": "2019-11-27", "endDate": "2019-12-03", "type": 3}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/12/04-17:36:14</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/12/04-17:36:44</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/12/04-17:37:13</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"eventId": 1009, "startDate": "2019-11-27", "endDate": "2019-12-03", "type": 6}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2227,7 +2561,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2248,6 +2582,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2530,10 +2879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="F41" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
@@ -2614,10 +2963,10 @@
         <v>200</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>222</v>
+        <v>439</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>223</v>
+        <v>440</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>32</v>
@@ -2649,10 +2998,10 @@
         <v>200</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>202</v>
+        <v>441</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>224</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2681,10 +3030,10 @@
         <v>200</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>226</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2713,10 +3062,10 @@
         <v>200</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>227</v>
+        <v>187</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>228</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2733,10 +3082,10 @@
         <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G6" s="5">
         <v>200</v>
@@ -2745,10 +3094,10 @@
         <v>200</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>229</v>
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="65">
@@ -2768,19 +3117,19 @@
         <v>27</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>221</v>
+        <v>438</v>
       </c>
       <c r="G7" s="5">
         <v>200</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>332</v>
+      <c r="H7" s="5">
+        <v>200</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>209</v>
+        <v>446</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>333</v>
+        <v>447</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>29</v>
@@ -2803,7 +3152,7 @@
         <v>34</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>232</v>
+        <v>189</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="5">
@@ -2813,10 +3162,10 @@
         <v>200</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>233</v>
+        <v>415</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>39</v>
@@ -2827,7 +3176,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
@@ -2836,28 +3185,28 @@
         <v>40</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>325</v>
+        <v>281</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="G9" s="5">
+        <v>200</v>
+      </c>
+      <c r="H9" s="5">
+        <v>200</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="G9" s="5">
-        <v>200</v>
-      </c>
-      <c r="H9" s="5">
-        <v>200</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="39.5">
@@ -2865,20 +3214,20 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>49</v>
-      </c>
       <c r="G10" s="5">
         <v>200</v>
       </c>
@@ -2886,16 +3235,16 @@
         <v>200</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>206</v>
+        <v>418</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>207</v>
+        <v>419</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="26.5">
@@ -2903,34 +3252,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>51</v>
+        <v>475</v>
       </c>
       <c r="G11" s="5">
         <v>200</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>208</v>
+        <v>420</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>209</v>
+        <v>421</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>210</v>
+        <v>422</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="39.5">
@@ -2938,19 +3287,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G12" s="5">
         <v>200</v>
@@ -2959,16 +3308,16 @@
         <v>200</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>211</v>
+        <v>423</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>212</v>
+        <v>424</v>
       </c>
       <c r="K12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2976,19 +3325,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G13" s="5">
         <v>200</v>
@@ -2997,10 +3346,10 @@
         <v>200</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>214</v>
+        <v>425</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="39">
@@ -3008,20 +3357,20 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="G14" s="5">
         <v>200</v>
       </c>
@@ -3029,10 +3378,10 @@
         <v>200</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>216</v>
+        <v>426</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -3040,7 +3389,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -3049,7 +3398,7 @@
         <v>10</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="5">
@@ -3059,10 +3408,10 @@
         <v>200</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>190</v>
+        <v>429</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>219</v>
+        <v>430</v>
       </c>
       <c r="L15" s="5"/>
     </row>
@@ -3071,7 +3420,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
         <v>22</v>
@@ -3080,10 +3429,10 @@
         <v>10</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G16" s="5">
         <v>200</v>
@@ -3092,10 +3441,10 @@
         <v>200</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>190</v>
+        <v>431</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>220</v>
+        <v>432</v>
       </c>
       <c r="L16" s="5"/>
     </row>
@@ -3104,7 +3453,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s">
         <v>22</v>
@@ -3113,22 +3462,22 @@
         <v>10</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>107</v>
+        <v>433</v>
       </c>
       <c r="G17" s="5">
         <v>200</v>
       </c>
-      <c r="H17" s="5" t="s">
-        <v>357</v>
+      <c r="H17" s="5">
+        <v>200</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>358</v>
+        <v>556</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>359</v>
+        <v>557</v>
       </c>
       <c r="L17" s="5"/>
     </row>
@@ -3137,7 +3486,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
         <v>22</v>
@@ -3146,7 +3495,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="5">
@@ -3156,16 +3505,16 @@
         <v>200</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>360</v>
+        <v>187</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>361</v>
+        <v>558</v>
       </c>
       <c r="K18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -3173,7 +3522,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
@@ -3182,10 +3531,10 @@
         <v>10</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G19" s="5">
         <v>200</v>
@@ -3194,10 +3543,10 @@
         <v>200</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>362</v>
+        <v>434</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>363</v>
+        <v>435</v>
       </c>
       <c r="L19" s="5"/>
     </row>
@@ -3206,7 +3555,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s">
         <v>22</v>
@@ -3215,10 +3564,10 @@
         <v>10</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G20" s="5">
         <v>200</v>
@@ -3227,10 +3576,10 @@
         <v>200</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>202</v>
+        <v>436</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>364</v>
+        <v>437</v>
       </c>
       <c r="L20" s="5"/>
     </row>
@@ -3239,7 +3588,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s">
         <v>22</v>
@@ -3248,10 +3597,10 @@
         <v>10</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G21" s="5">
         <v>200</v>
@@ -3260,10 +3609,10 @@
         <v>200</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>190</v>
+        <v>454</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>191</v>
+        <v>455</v>
       </c>
       <c r="L21" s="5"/>
     </row>
@@ -3272,7 +3621,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C22" t="s">
         <v>22</v>
@@ -3281,7 +3630,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="5">
@@ -3291,10 +3640,10 @@
         <v>200</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>190</v>
+        <v>456</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>192</v>
+        <v>457</v>
       </c>
       <c r="L22" s="5"/>
     </row>
@@ -3303,16 +3652,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="5">
@@ -3322,10 +3671,10 @@
         <v>200</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>190</v>
+        <v>458</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>230</v>
+        <v>459</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="143">
@@ -3333,34 +3682,34 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C24" t="s">
         <v>22</v>
       </c>
       <c r="D24" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="G24" s="5">
+        <v>200</v>
+      </c>
+      <c r="H24" s="5">
+        <v>200</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="L24" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G24" s="5">
-        <v>200</v>
-      </c>
-      <c r="H24" s="5">
-        <v>200</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="26">
@@ -3368,19 +3717,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C25" t="s">
         <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G25" s="5">
         <v>200</v>
@@ -3389,10 +3738,10 @@
         <v>200</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>190</v>
+        <v>462</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>194</v>
+        <v>463</v>
       </c>
       <c r="L25" s="5"/>
     </row>
@@ -3401,7 +3750,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C26" t="s">
         <v>22</v>
@@ -3410,10 +3759,10 @@
         <v>10</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G26" s="5">
         <v>200</v>
@@ -3422,10 +3771,10 @@
         <v>200</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>190</v>
+        <v>464</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>195</v>
+        <v>465</v>
       </c>
       <c r="L26" s="5"/>
     </row>
@@ -3434,16 +3783,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C27" t="s">
         <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="5">
@@ -3453,10 +3802,10 @@
         <v>200</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>190</v>
+        <v>466</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>231</v>
+        <v>467</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="130">
@@ -3464,19 +3813,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C28" t="s">
         <v>22</v>
       </c>
       <c r="D28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G28" s="5">
         <v>200</v>
@@ -3485,10 +3834,10 @@
         <v>200</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>190</v>
+        <v>468</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>196</v>
+        <v>469</v>
       </c>
       <c r="L28" s="5" t="s">
         <v>32</v>
@@ -3499,19 +3848,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C29" t="s">
         <v>22</v>
       </c>
       <c r="D29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G29" s="5">
         <v>200</v>
@@ -3520,10 +3869,10 @@
         <v>200</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>190</v>
+        <v>470</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>197</v>
+        <v>471</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -3531,7 +3880,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C30" t="s">
         <v>22</v>
@@ -3540,7 +3889,7 @@
         <v>10</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="5">
@@ -3550,10 +3899,10 @@
         <v>200</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>190</v>
+        <v>472</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>198</v>
+        <v>473</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -3561,7 +3910,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C31" t="s">
         <v>22</v>
@@ -3570,7 +3919,7 @@
         <v>10</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="5">
@@ -3580,10 +3929,10 @@
         <v>200</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>190</v>
+        <v>448</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>199</v>
+        <v>449</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -3591,7 +3940,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C32" t="s">
         <v>22</v>
@@ -3600,7 +3949,7 @@
         <v>10</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="5">
@@ -3610,10 +3959,10 @@
         <v>200</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>190</v>
+        <v>450</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>200</v>
+        <v>451</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -3621,19 +3970,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C33" t="s">
         <v>22</v>
       </c>
       <c r="D33" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G33" s="5">
         <v>200</v>
@@ -3642,10 +3991,10 @@
         <v>200</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>190</v>
+        <v>452</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>201</v>
+        <v>453</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -3653,7 +4002,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C34" t="s">
         <v>22</v>
@@ -3662,10 +4011,10 @@
         <v>10</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G34" s="5">
         <v>200</v>
@@ -3674,10 +4023,10 @@
         <v>200</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>217</v>
+        <v>427</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>218</v>
+        <v>428</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -3689,94 +4038,451 @@
       <c r="I35" s="3"/>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="1:10">
-      <c r="B36" s="2"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="5"/>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="B37" s="2"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="5"/>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="B38" s="2"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="5"/>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="B39" s="2"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="5"/>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="B40" s="2"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="5"/>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="B41" s="2"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="B42" s="2"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="B43" s="2"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="B44" s="2"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="B45" s="2"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
+    <row r="36" spans="1:10" ht="26">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="C36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="G36" s="5">
+        <v>200</v>
+      </c>
+      <c r="H36" s="13">
+        <v>200</v>
+      </c>
+      <c r="I36" s="16" t="s">
+        <v>579</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="39">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="G37" s="5">
+        <v>200</v>
+      </c>
+      <c r="H37" s="14">
+        <v>200</v>
+      </c>
+      <c r="I37" s="16" t="s">
+        <v>582</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="39">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="C38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="G38" s="5">
+        <v>200</v>
+      </c>
+      <c r="H38" s="14">
+        <v>200</v>
+      </c>
+      <c r="I38" s="16" t="s">
+        <v>585</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="39">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="G39" s="5">
+        <v>200</v>
+      </c>
+      <c r="H39" s="14">
+        <v>200</v>
+      </c>
+      <c r="I39" s="16" t="s">
+        <v>588</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="26">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="G40" s="5">
+        <v>200</v>
+      </c>
+      <c r="H40" s="14">
+        <v>200</v>
+      </c>
+      <c r="I40" s="16" t="s">
+        <v>590</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="39">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="G41" s="5">
+        <v>200</v>
+      </c>
+      <c r="H41" s="14">
+        <v>200</v>
+      </c>
+      <c r="I41" s="16" t="s">
+        <v>592</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="39">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="C42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="G42" s="5">
+        <v>200</v>
+      </c>
+      <c r="H42" s="14">
+        <v>200</v>
+      </c>
+      <c r="I42" s="16" t="s">
+        <v>566</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="39">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="C43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="G43" s="5">
+        <v>200</v>
+      </c>
+      <c r="H43" s="14">
+        <v>200</v>
+      </c>
+      <c r="I43" s="16" t="s">
+        <v>568</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="52">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C44" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="G44" s="5">
+        <v>200</v>
+      </c>
+      <c r="H44" s="14">
+        <v>200</v>
+      </c>
+      <c r="I44" s="16" t="s">
+        <v>571</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="52">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="G45" s="5">
+        <v>200</v>
+      </c>
+      <c r="H45" s="14">
+        <v>200</v>
+      </c>
+      <c r="I45" s="16" t="s">
+        <v>574</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="B46" s="2"/>
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="C46" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" t="s">
+        <v>562</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>560</v>
+      </c>
       <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
+      <c r="G46" s="5">
+        <v>200</v>
+      </c>
+      <c r="H46" s="14">
+        <v>200</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="H47" s="15"/>
+      <c r="I47" s="17"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="H48" s="15"/>
+      <c r="I48" s="17"/>
+    </row>
+    <row r="49" spans="8:9">
+      <c r="H49" s="15"/>
+      <c r="I49" s="17"/>
+    </row>
+    <row r="50" spans="8:9">
+      <c r="H50" s="15"/>
+      <c r="I50" s="17"/>
+    </row>
+    <row r="51" spans="8:9">
+      <c r="H51" s="15"/>
+      <c r="I51" s="17"/>
+    </row>
+    <row r="52" spans="8:9">
+      <c r="H52" s="15"/>
+      <c r="I52" s="17"/>
+    </row>
+    <row r="53" spans="8:9">
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+    </row>
+    <row r="54" spans="8:9">
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+    </row>
+    <row r="55" spans="8:9">
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+    </row>
+    <row r="56" spans="8:9">
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+    </row>
+    <row r="57" spans="8:9">
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+    </row>
+    <row r="58" spans="8:9">
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+    </row>
+    <row r="59" spans="8:9">
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+    </row>
+    <row r="60" spans="8:9">
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+    </row>
+    <row r="61" spans="8:9">
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+    </row>
+    <row r="62" spans="8:9">
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+    </row>
+    <row r="63" spans="8:9">
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+    </row>
+    <row r="64" spans="8:9">
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+    </row>
+    <row r="65" spans="8:9">
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+    </row>
+    <row r="66" spans="8:9">
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+    </row>
+    <row r="67" spans="8:9">
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+    </row>
+    <row r="68" spans="8:9">
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+    </row>
+    <row r="69" spans="8:9">
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+    </row>
+    <row r="70" spans="8:9">
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -3787,9 +4493,19 @@
     <hyperlink ref="E9" r:id="rId4" display="http://gw.test.mee.jdcloud.com/ap/v1/tenants/"/>
     <hyperlink ref="E10" r:id="rId5" display="http://gw.test.mee.jdcloud.com/ap/v1/tenantProducts/"/>
     <hyperlink ref="E11" r:id="rId6" display="http://gw.test.mee.jdcloud.com/ap/v1/exproducts?"/>
+    <hyperlink ref="E36" r:id="rId7" display="http://mp.test.mee.jdcloud.com/e/ap/v1/report"/>
+    <hyperlink ref="E37" r:id="rId8" display="http://mp.test.mee.jdcloud.com/e/ap/v1/report"/>
+    <hyperlink ref="E38" r:id="rId9" display="http://mp.test.mee.jdcloud.com/e/ap/v1/report"/>
+    <hyperlink ref="E39" r:id="rId10" display="http://mp.test.mee.jdcloud.com/e/ap/v1/report"/>
+    <hyperlink ref="E40" r:id="rId11" display="http://mp.test.mee.jdcloud.com/e/ap/v1/report"/>
+    <hyperlink ref="E41" r:id="rId12" display="http://mp.test.mee.jdcloud.com/e/ap/v1/report"/>
+    <hyperlink ref="E42" r:id="rId13" display="http://mp.test.mee.jdcloud.com/e/ap/v1/report"/>
+    <hyperlink ref="E43" r:id="rId14" display="http://mp.test.mee.jdcloud.com/e/ap/v1/report"/>
+    <hyperlink ref="E44" r:id="rId15" display="http://mp.test.mee.jdcloud.com/e/ap/v1/report"/>
+    <hyperlink ref="E45" r:id="rId16" display="http://mp.test.mee.jdcloud.com/e/ap/v1/report"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
 
@@ -3797,8 +4513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
@@ -3843,10 +4559,10 @@
         <v>5</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -3854,33 +4570,33 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
         <v>200</v>
       </c>
-      <c r="H2" s="2">
-        <v>200</v>
+      <c r="H2" s="2" t="s">
+        <v>490</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>416</v>
+        <v>491</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>460</v>
+        <v>492</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
-        <v>313</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3888,31 +4604,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>372</v>
+        <v>318</v>
       </c>
       <c r="G3" s="2">
         <v>200</v>
       </c>
-      <c r="H3" s="2">
-        <v>200</v>
+      <c r="H3" s="2" t="s">
+        <v>493</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>417</v>
+        <v>494</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>461</v>
+        <v>495</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -3922,29 +4638,29 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>373</v>
+        <v>319</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>374</v>
+        <v>320</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
         <v>200</v>
       </c>
-      <c r="H4" s="2">
-        <v>200</v>
+      <c r="H4" s="2" t="s">
+        <v>496</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>418</v>
+        <v>188</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -3954,35 +4670,35 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>314</v>
+        <v>270</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
         <v>200</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>419</v>
+        <v>498</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>420</v>
+        <v>499</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>421</v>
+        <v>500</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -3990,29 +4706,29 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>375</v>
+        <v>321</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
         <v>200</v>
       </c>
-      <c r="H6" s="2">
-        <v>200</v>
+      <c r="H6" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>422</v>
+        <v>502</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>423</v>
+        <v>503</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -4022,34 +4738,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>334</v>
+        <v>288</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>336</v>
+        <v>290</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>335</v>
+        <v>289</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>338</v>
+        <v>292</v>
       </c>
       <c r="G7" s="2">
         <v>200</v>
       </c>
-      <c r="H7" s="2">
-        <v>200</v>
+      <c r="H7" s="2" t="s">
+        <v>504</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>435</v>
+        <v>505</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>436</v>
+        <v>506</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>337</v>
+        <v>291</v>
       </c>
       <c r="L7" s="2"/>
     </row>
@@ -4058,35 +4774,35 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>376</v>
+        <v>322</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
         <v>200</v>
       </c>
-      <c r="H8" s="2">
-        <v>200</v>
+      <c r="H8" s="2" t="s">
+        <v>507</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>385</v>
+        <v>188</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>386</v>
+        <v>508</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -4094,31 +4810,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>377</v>
+        <v>323</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>326</v>
+        <v>282</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>327</v>
+        <v>283</v>
       </c>
       <c r="G9" s="2">
         <v>200</v>
       </c>
-      <c r="H9" s="2">
-        <v>200</v>
+      <c r="H9" s="2" t="s">
+        <v>509</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>387</v>
+        <v>510</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>388</v>
+        <v>511</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -4128,31 +4844,31 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>378</v>
+        <v>324</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>328</v>
+        <v>284</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>329</v>
+        <v>285</v>
       </c>
       <c r="G10" s="2">
         <v>200</v>
       </c>
-      <c r="H10" s="2">
-        <v>200</v>
+      <c r="H10" s="2" t="s">
+        <v>512</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>389</v>
+        <v>513</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>390</v>
+        <v>514</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -4162,31 +4878,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>379</v>
+        <v>325</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>330</v>
+        <v>286</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>331</v>
+        <v>287</v>
       </c>
       <c r="G11" s="2">
         <v>200</v>
       </c>
-      <c r="H11" s="2">
-        <v>200</v>
+      <c r="H11" s="2" t="s">
+        <v>477</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>391</v>
+        <v>515</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>392</v>
+        <v>516</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -4196,29 +4912,29 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>380</v>
+        <v>326</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>317</v>
+        <v>273</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
         <v>200</v>
       </c>
-      <c r="H12" s="2">
-        <v>200</v>
+      <c r="H12" s="2" t="s">
+        <v>517</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>393</v>
+        <v>518</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>394</v>
+        <v>519</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -4228,31 +4944,31 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>381</v>
+        <v>327</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>318</v>
+        <v>274</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G13" s="2">
         <v>200</v>
       </c>
-      <c r="H13" s="2">
-        <v>200</v>
+      <c r="H13" s="2" t="s">
+        <v>520</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>395</v>
+        <v>521</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>396</v>
+        <v>522</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -4262,29 +4978,29 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>354</v>
+        <v>308</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>319</v>
+        <v>275</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
         <v>200</v>
       </c>
-      <c r="H14" s="2">
-        <v>200</v>
+      <c r="H14" s="2" t="s">
+        <v>535</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>397</v>
+        <v>536</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>398</v>
+        <v>537</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -4294,7 +5010,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>355</v>
+        <v>309</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>22</v>
@@ -4303,20 +5019,20 @@
         <v>14</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>356</v>
+        <v>310</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
         <v>200</v>
       </c>
-      <c r="H15" s="2">
-        <v>200</v>
+      <c r="H15" s="2" t="s">
+        <v>538</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>399</v>
+        <v>539</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>400</v>
+        <v>540</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -4326,29 +5042,29 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>352</v>
+        <v>306</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>320</v>
+        <v>276</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
         <v>200</v>
       </c>
-      <c r="H16" s="2">
-        <v>200</v>
+      <c r="H16" s="2" t="s">
+        <v>541</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>401</v>
+        <v>542</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>402</v>
+        <v>543</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -4358,7 +5074,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>353</v>
+        <v>307</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>22</v>
@@ -4367,20 +5083,20 @@
         <v>14</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>351</v>
+        <v>305</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
         <v>200</v>
       </c>
-      <c r="H17" s="2">
-        <v>200</v>
+      <c r="H17" s="2" t="s">
+        <v>544</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>403</v>
+        <v>479</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>404</v>
+        <v>545</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -4390,31 +5106,31 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>348</v>
+        <v>302</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>321</v>
+        <v>277</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G18" s="2">
         <v>200</v>
       </c>
-      <c r="H18" s="2">
-        <v>200</v>
+      <c r="H18" s="2" t="s">
+        <v>478</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>405</v>
+        <v>480</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>406</v>
+        <v>481</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -4424,7 +5140,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>349</v>
+        <v>303</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>22</v>
@@ -4433,20 +5149,20 @@
         <v>14</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>350</v>
+        <v>304</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
         <v>200</v>
       </c>
-      <c r="H19" s="2">
-        <v>200</v>
+      <c r="H19" s="2" t="s">
+        <v>478</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>407</v>
+        <v>188</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>408</v>
+        <v>482</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -4456,29 +5172,29 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
         <v>200</v>
       </c>
-      <c r="H20" s="2">
-        <v>200</v>
+      <c r="H20" s="2" t="s">
+        <v>478</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>202</v>
+        <v>483</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>424</v>
+        <v>484</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -4488,16 +5204,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="2">
@@ -4507,10 +5223,10 @@
         <v>200</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>511</v>
+        <v>485</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -4520,7 +5236,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>22</v>
@@ -4529,22 +5245,22 @@
         <v>10</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>322</v>
+        <v>278</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>382</v>
+        <v>328</v>
       </c>
       <c r="G22" s="2">
         <v>200</v>
       </c>
-      <c r="H22" s="2">
-        <v>200</v>
+      <c r="H22" s="2" t="s">
+        <v>478</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>410</v>
+        <v>486</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>411</v>
+        <v>487</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -4554,31 +5270,31 @@
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>323</v>
+        <v>279</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G23" s="2">
         <v>200</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>412</v>
+        <v>330</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>413</v>
+        <v>331</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>414</v>
+        <v>332</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -4588,27 +5304,31 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="G24" s="2">
         <v>200</v>
       </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="H24" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>488</v>
+      </c>
       <c r="J24" s="2" t="s">
-        <v>415</v>
+        <v>489</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -4618,19 +5338,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G25" s="2">
         <v>200</v>
@@ -4646,35 +5366,35 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>425</v>
+        <v>333</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>339</v>
+        <v>293</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>341</v>
+        <v>295</v>
       </c>
       <c r="G26" s="2">
         <v>200</v>
       </c>
-      <c r="H26" s="2">
-        <v>200</v>
+      <c r="H26" s="2" t="s">
+        <v>523</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>429</v>
+        <v>524</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>430</v>
+        <v>525</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="26">
@@ -4682,7 +5402,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>383</v>
+        <v>329</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>22</v>
@@ -4691,22 +5411,22 @@
         <v>40</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>342</v>
+        <v>296</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>343</v>
+        <v>297</v>
       </c>
       <c r="G27" s="2">
         <v>200</v>
       </c>
-      <c r="H27" s="2">
-        <v>200</v>
+      <c r="H27" s="2" t="s">
+        <v>526</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>431</v>
+        <v>527</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>432</v>
+        <v>528</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -4716,7 +5436,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>426</v>
+        <v>334</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>22</v>
@@ -4725,7 +5445,7 @@
         <v>14</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>344</v>
+        <v>298</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="2">
@@ -4734,7 +5454,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2" t="s">
-        <v>433</v>
+        <v>337</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -4744,7 +5464,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>427</v>
+        <v>335</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>22</v>
@@ -4753,20 +5473,20 @@
         <v>14</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>345</v>
+        <v>299</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="2">
         <v>200</v>
       </c>
-      <c r="H29" s="2">
-        <v>200</v>
+      <c r="H29" s="2" t="s">
+        <v>529</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>190</v>
+        <v>530</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>434</v>
+        <v>531</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -4776,7 +5496,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>428</v>
+        <v>336</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>22</v>
@@ -4785,22 +5505,22 @@
         <v>20</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>346</v>
+        <v>300</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>347</v>
+        <v>301</v>
       </c>
       <c r="G30" s="2">
         <v>200</v>
       </c>
-      <c r="H30" s="2">
-        <v>200</v>
+      <c r="H30" s="2" t="s">
+        <v>532</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>190</v>
+        <v>533</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>384</v>
+        <v>534</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -4972,8 +5692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
@@ -5033,7 +5753,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>289</v>
+        <v>245</v>
       </c>
       <c r="C2" t="s">
         <v>36</v>
@@ -5042,25 +5762,25 @@
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G2" s="5">
         <v>200</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>365</v>
+        <v>311</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>366</v>
+        <v>312</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -5068,31 +5788,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>290</v>
+        <v>246</v>
       </c>
       <c r="C3" t="s">
         <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G3" s="5">
         <v>200</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>367</v>
+        <v>313</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>368</v>
+        <v>314</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>369</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="26.5">
@@ -5100,37 +5820,37 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>291</v>
+        <v>247</v>
       </c>
       <c r="C4" t="s">
-        <v>302</v>
+        <v>258</v>
       </c>
       <c r="D4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G4" s="5">
+        <v>200</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="L4" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G4" s="5">
-        <v>200</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -5138,19 +5858,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C5" t="s">
-        <v>302</v>
+        <v>258</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>309</v>
+        <v>265</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G5" s="5">
         <v>200</v>
@@ -5159,10 +5879,10 @@
         <v>200</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>252</v>
+        <v>208</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>253</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -5170,19 +5890,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="C6" t="s">
-        <v>303</v>
+        <v>259</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G6" s="5">
         <v>200</v>
@@ -5191,10 +5911,10 @@
         <v>200</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>254</v>
+        <v>210</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="65">
@@ -5202,7 +5922,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>293</v>
+        <v>249</v>
       </c>
       <c r="C7" t="s">
         <v>36</v>
@@ -5211,10 +5931,10 @@
         <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>310</v>
+        <v>266</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G7" s="5">
         <v>200</v>
@@ -5223,16 +5943,16 @@
         <v>200</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>256</v>
+        <v>212</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>257</v>
+        <v>213</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="88" customHeight="1">
@@ -5240,13 +5960,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>294</v>
+        <v>250</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>38</v>
@@ -5259,10 +5979,10 @@
         <v>200</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>272</v>
+        <v>228</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>39</v>
@@ -5273,7 +5993,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C9" t="s">
         <v>36</v>
@@ -5282,10 +6002,10 @@
         <v>40</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>167</v>
+        <v>474</v>
       </c>
       <c r="G9" s="5">
         <v>200</v>
@@ -5294,16 +6014,16 @@
         <v>200</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>273</v>
+        <v>229</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>274</v>
+        <v>230</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="39.5">
@@ -5311,7 +6031,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>295</v>
+        <v>251</v>
       </c>
       <c r="C10" t="s">
         <v>36</v>
@@ -5320,10 +6040,10 @@
         <v>10</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G10" s="5">
         <v>200</v>
@@ -5332,16 +6052,16 @@
         <v>200</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>275</v>
+        <v>231</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>276</v>
+        <v>232</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="26.5">
@@ -5349,19 +6069,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>304</v>
+        <v>260</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>311</v>
+        <v>267</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>172</v>
+        <v>476</v>
       </c>
       <c r="G11" s="5">
         <v>200</v>
@@ -5370,13 +6090,13 @@
         <v>200</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>278</v>
+        <v>234</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="26.5">
@@ -5384,19 +6104,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>296</v>
+        <v>252</v>
       </c>
       <c r="C12" t="s">
-        <v>305</v>
+        <v>261</v>
       </c>
       <c r="D12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G12" s="5">
         <v>200</v>
@@ -5405,16 +6125,16 @@
         <v>200</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>279</v>
+        <v>235</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>280</v>
+        <v>236</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -5422,7 +6142,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>297</v>
+        <v>253</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
@@ -5431,10 +6151,10 @@
         <v>10</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G13" s="5">
         <v>200</v>
@@ -5443,10 +6163,10 @@
         <v>200</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>281</v>
+        <v>237</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>282</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="39">
@@ -5454,7 +6174,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>298</v>
+        <v>254</v>
       </c>
       <c r="C14" t="s">
         <v>36</v>
@@ -5463,10 +6183,10 @@
         <v>20</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>312</v>
+        <v>268</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G14" s="5">
         <v>200</v>
@@ -5475,10 +6195,10 @@
         <v>200</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>283</v>
+        <v>239</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>284</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -5486,16 +6206,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>303</v>
+        <v>259</v>
       </c>
       <c r="D15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="5">
@@ -5505,10 +6225,10 @@
         <v>200</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>287</v>
+        <v>243</v>
       </c>
       <c r="L15" s="5"/>
     </row>
@@ -5517,7 +6237,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
         <v>36</v>
@@ -5526,10 +6246,10 @@
         <v>10</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G16" s="5">
         <v>200</v>
@@ -5538,10 +6258,10 @@
         <v>200</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>288</v>
+        <v>244</v>
       </c>
       <c r="L16" s="5"/>
     </row>
@@ -5550,19 +6270,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s">
-        <v>306</v>
+        <v>262</v>
       </c>
       <c r="D17" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>67</v>
+        <v>433</v>
       </c>
       <c r="G17" s="5">
         <v>200</v>
@@ -5571,10 +6291,10 @@
         <v>200</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>264</v>
+        <v>220</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>265</v>
+        <v>221</v>
       </c>
       <c r="L17" s="5"/>
     </row>
@@ -5583,16 +6303,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
       <c r="D18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="5">
@@ -5602,16 +6322,16 @@
         <v>200</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>266</v>
+        <v>222</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>267</v>
+        <v>223</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -5619,19 +6339,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>305</v>
+        <v>261</v>
       </c>
       <c r="D19" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G19" s="5">
         <v>200</v>
@@ -5640,10 +6360,10 @@
         <v>200</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>268</v>
+        <v>224</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>269</v>
+        <v>225</v>
       </c>
       <c r="L19" s="5"/>
     </row>
@@ -5652,19 +6372,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
       <c r="D20" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G20" s="5">
         <v>200</v>
@@ -5673,10 +6393,10 @@
         <v>200</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>270</v>
+        <v>226</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>271</v>
+        <v>227</v>
       </c>
       <c r="L20" s="5"/>
     </row>
@@ -5685,7 +6405,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s">
         <v>36</v>
@@ -5694,10 +6414,10 @@
         <v>10</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G21" s="5">
         <v>200</v>
@@ -5706,10 +6426,10 @@
         <v>200</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>234</v>
+        <v>190</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>235</v>
+        <v>191</v>
       </c>
       <c r="L21" s="5"/>
     </row>
@@ -5718,16 +6438,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C22" t="s">
-        <v>303</v>
+        <v>259</v>
       </c>
       <c r="D22" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="5">
@@ -5737,10 +6457,10 @@
         <v>200</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>236</v>
+        <v>192</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>237</v>
+        <v>193</v>
       </c>
       <c r="L22" s="5"/>
     </row>
@@ -5749,16 +6469,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
         <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="5">
@@ -5768,10 +6488,10 @@
         <v>200</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>238</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="130">
@@ -5779,19 +6499,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
       <c r="C24" t="s">
-        <v>303</v>
+        <v>259</v>
       </c>
       <c r="D24" t="s">
         <v>40</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G24" s="5">
         <v>200</v>
@@ -5800,13 +6520,13 @@
         <v>200</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>239</v>
+        <v>195</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>240</v>
+        <v>196</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="26">
@@ -5814,19 +6534,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C25" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
       <c r="D25" t="s">
         <v>40</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G25" s="5">
         <v>200</v>
@@ -5835,10 +6555,10 @@
         <v>200</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>241</v>
+        <v>197</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>242</v>
+        <v>198</v>
       </c>
       <c r="L25" s="5"/>
     </row>
@@ -5847,19 +6567,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C26" t="s">
         <v>36</v>
       </c>
       <c r="D26" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G26" s="5">
         <v>200</v>
@@ -5868,10 +6588,10 @@
         <v>200</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>243</v>
+        <v>199</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>244</v>
+        <v>200</v>
       </c>
       <c r="L26" s="5"/>
     </row>
@@ -5880,7 +6600,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C27" t="s">
         <v>36</v>
@@ -5889,7 +6609,7 @@
         <v>20</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="5">
@@ -5898,7 +6618,7 @@
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5" t="s">
-        <v>245</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="130">
@@ -5906,7 +6626,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>300</v>
+        <v>256</v>
       </c>
       <c r="C28" t="s">
         <v>36</v>
@@ -5915,10 +6635,10 @@
         <v>40</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G28" s="5">
         <v>200</v>
@@ -5927,13 +6647,13 @@
         <v>200</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>246</v>
+        <v>202</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>247</v>
+        <v>203</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="26">
@@ -5941,19 +6661,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C29" t="s">
-        <v>306</v>
+        <v>262</v>
       </c>
       <c r="D29" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G29" s="5">
         <v>200</v>
@@ -5962,10 +6682,10 @@
         <v>200</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>248</v>
+        <v>204</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>249</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -5973,16 +6693,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C30" t="s">
-        <v>303</v>
+        <v>259</v>
       </c>
       <c r="D30" t="s">
         <v>10</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="5">
@@ -5992,10 +6712,10 @@
         <v>200</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>250</v>
+        <v>206</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>251</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -6003,16 +6723,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C31" t="s">
         <v>36</v>
       </c>
       <c r="D31" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="5">
@@ -6022,10 +6742,10 @@
         <v>200</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>258</v>
+        <v>214</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>259</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -6033,16 +6753,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>301</v>
+        <v>257</v>
       </c>
       <c r="C32" t="s">
-        <v>306</v>
+        <v>262</v>
       </c>
       <c r="D32" t="s">
         <v>10</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="5">
@@ -6052,10 +6772,10 @@
         <v>200</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>260</v>
+        <v>216</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>261</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -6063,19 +6783,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C33" t="s">
-        <v>306</v>
+        <v>262</v>
       </c>
       <c r="D33" t="s">
         <v>20</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G33" s="5">
         <v>200</v>
@@ -6084,10 +6804,10 @@
         <v>200</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>262</v>
+        <v>218</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>263</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -6095,7 +6815,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C34" t="s">
         <v>36</v>
@@ -6104,10 +6824,10 @@
         <v>10</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G34" s="5">
         <v>200</v>
@@ -6116,10 +6836,10 @@
         <v>200</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>285</v>
+        <v>241</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>286</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -6132,90 +6852,60 @@
       <c r="J35" s="5"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="B36" s="2"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="3"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="3"/>
       <c r="J36" s="5"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="B37" s="2"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="3"/>
       <c r="G37" s="5"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="5"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="B38" s="2"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="3"/>
       <c r="G38" s="5"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="5"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="B39" s="2"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="5"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="B40" s="2"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="5"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="B41" s="2"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="B42" s="2"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="B43" s="2"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="B44" s="2"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="B45" s="2"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -6249,7 +6939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
@@ -6298,7 +6988,7 @@
         <v>28</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -6306,7 +6996,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -6315,7 +7005,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -6325,14 +7015,14 @@
         <v>200</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>463</v>
+        <v>361</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
-        <v>437</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -6340,7 +7030,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
@@ -6349,10 +7039,10 @@
         <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G3" s="2">
         <v>200</v>
@@ -6361,10 +7051,10 @@
         <v>200</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>464</v>
+        <v>362</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>465</v>
+        <v>363</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -6374,7 +7064,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>373</v>
+        <v>319</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
@@ -6383,7 +7073,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>374</v>
+        <v>320</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -6393,10 +7083,10 @@
         <v>200</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>466</v>
+        <v>364</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>467</v>
+        <v>365</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -6406,7 +7096,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>22</v>
@@ -6415,7 +7105,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>438</v>
+        <v>339</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -6425,16 +7115,16 @@
         <v>200</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>468</v>
+        <v>366</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>469</v>
+        <v>367</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>446</v>
+        <v>347</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>447</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -6442,7 +7132,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>375</v>
+        <v>321</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -6451,7 +7141,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>439</v>
+        <v>340</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -6461,10 +7151,10 @@
         <v>200</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>470</v>
+        <v>368</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>471</v>
+        <v>369</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -6474,19 +7164,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>334</v>
+        <v>288</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>450</v>
+        <v>351</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>448</v>
+        <v>349</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>338</v>
+        <v>292</v>
       </c>
       <c r="G7" s="2">
         <v>200</v>
@@ -6495,13 +7185,13 @@
         <v>200</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>472</v>
+        <v>370</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>473</v>
+        <v>371</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>449</v>
+        <v>350</v>
       </c>
       <c r="L7" s="2"/>
     </row>
@@ -6510,7 +7200,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>376</v>
+        <v>322</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>22</v>
@@ -6519,7 +7209,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>451</v>
+        <v>352</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -6529,16 +7219,16 @@
         <v>200</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>474</v>
+        <v>372</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>475</v>
+        <v>373</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>455</v>
+        <v>356</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -6546,7 +7236,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>377</v>
+        <v>323</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>22</v>
@@ -6555,10 +7245,10 @@
         <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>452</v>
+        <v>353</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>327</v>
+        <v>283</v>
       </c>
       <c r="G9" s="2">
         <v>200</v>
@@ -6567,10 +7257,10 @@
         <v>200</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>476</v>
+        <v>374</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>477</v>
+        <v>375</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -6580,7 +7270,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>378</v>
+        <v>324</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>22</v>
@@ -6589,10 +7279,10 @@
         <v>10</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>452</v>
+        <v>353</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>329</v>
+        <v>285</v>
       </c>
       <c r="G10" s="2">
         <v>200</v>
@@ -6601,10 +7291,10 @@
         <v>200</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>478</v>
+        <v>376</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>479</v>
+        <v>377</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -6614,7 +7304,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>379</v>
+        <v>325</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>22</v>
@@ -6623,10 +7313,10 @@
         <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>453</v>
+        <v>354</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>331</v>
+        <v>287</v>
       </c>
       <c r="G11" s="2">
         <v>200</v>
@@ -6635,10 +7325,10 @@
         <v>200</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>480</v>
+        <v>378</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>481</v>
+        <v>379</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -6648,7 +7338,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>380</v>
+        <v>326</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>22</v>
@@ -6657,7 +7347,7 @@
         <v>10</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>454</v>
+        <v>355</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -6667,10 +7357,10 @@
         <v>200</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>482</v>
+        <v>380</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>483</v>
+        <v>381</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -6680,7 +7370,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>381</v>
+        <v>327</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>22</v>
@@ -6689,10 +7379,10 @@
         <v>10</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>318</v>
+        <v>274</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>456</v>
+        <v>357</v>
       </c>
       <c r="G13" s="2">
         <v>200</v>
@@ -6701,10 +7391,10 @@
         <v>200</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>484</v>
+        <v>382</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>485</v>
+        <v>383</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -6714,7 +7404,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>354</v>
+        <v>308</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>22</v>
@@ -6723,7 +7413,7 @@
         <v>10</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>440</v>
+        <v>341</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -6733,10 +7423,10 @@
         <v>200</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>497</v>
+        <v>393</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>498</v>
+        <v>394</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -6746,7 +7436,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>355</v>
+        <v>309</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>22</v>
@@ -6755,7 +7445,7 @@
         <v>14</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>441</v>
+        <v>342</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
@@ -6765,10 +7455,10 @@
         <v>200</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>499</v>
+        <v>395</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>500</v>
+        <v>396</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -6778,7 +7468,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>352</v>
+        <v>306</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>22</v>
@@ -6787,7 +7477,7 @@
         <v>10</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>442</v>
+        <v>343</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
@@ -6797,10 +7487,10 @@
         <v>200</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>501</v>
+        <v>397</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>502</v>
+        <v>398</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -6810,7 +7500,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>353</v>
+        <v>307</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>22</v>
@@ -6819,7 +7509,7 @@
         <v>14</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>443</v>
+        <v>344</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
@@ -6829,10 +7519,10 @@
         <v>200</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>503</v>
+        <v>399</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>504</v>
+        <v>400</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -6842,7 +7532,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>348</v>
+        <v>302</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>22</v>
@@ -6851,10 +7541,10 @@
         <v>10</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>321</v>
+        <v>277</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>457</v>
+        <v>358</v>
       </c>
       <c r="G18" s="2">
         <v>200</v>
@@ -6863,10 +7553,10 @@
         <v>200</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>505</v>
+        <v>401</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>506</v>
+        <v>402</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -6876,7 +7566,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>349</v>
+        <v>303</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>22</v>
@@ -6885,7 +7575,7 @@
         <v>14</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>444</v>
+        <v>345</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
@@ -6895,10 +7585,10 @@
         <v>200</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>507</v>
+        <v>403</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>508</v>
+        <v>404</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -6908,7 +7598,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>22</v>
@@ -6917,7 +7607,7 @@
         <v>10</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>445</v>
+        <v>346</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
@@ -6927,10 +7617,10 @@
         <v>200</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>509</v>
+        <v>405</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>510</v>
+        <v>406</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -6940,7 +7630,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>22</v>
@@ -6949,7 +7639,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>445</v>
+        <v>346</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="2">
@@ -6966,7 +7656,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>22</v>
@@ -6975,10 +7665,10 @@
         <v>10</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>322</v>
+        <v>278</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>382</v>
+        <v>328</v>
       </c>
       <c r="G22" s="2">
         <v>200</v>
@@ -6987,10 +7677,10 @@
         <v>200</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>512</v>
+        <v>407</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>513</v>
+        <v>408</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -7000,7 +7690,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>22</v>
@@ -7009,10 +7699,10 @@
         <v>20</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>445</v>
+        <v>346</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G23" s="2">
         <v>200</v>
@@ -7028,7 +7718,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>22</v>
@@ -7037,10 +7727,10 @@
         <v>40</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>324</v>
+        <v>280</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>458</v>
+        <v>359</v>
       </c>
       <c r="G24" s="2">
         <v>200</v>
@@ -7049,10 +7739,10 @@
         <v>200</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>514</v>
+        <v>409</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -7062,7 +7752,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>22</v>
@@ -7071,10 +7761,10 @@
         <v>40</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>445</v>
+        <v>346</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G25" s="2">
         <v>200</v>
@@ -7090,7 +7780,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>425</v>
+        <v>333</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>22</v>
@@ -7099,26 +7789,26 @@
         <v>40</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>339</v>
+        <v>293</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>459</v>
+        <v>360</v>
       </c>
       <c r="G26" s="2">
         <v>200</v>
       </c>
-      <c r="H26" s="2">
-        <v>200</v>
+      <c r="H26" s="2" t="s">
+        <v>313</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>486</v>
+        <v>410</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>487</v>
+        <v>411</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="26">
@@ -7126,7 +7816,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>383</v>
+        <v>329</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>22</v>
@@ -7135,10 +7825,10 @@
         <v>40</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>342</v>
+        <v>296</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>343</v>
+        <v>297</v>
       </c>
       <c r="G27" s="2">
         <v>200</v>
@@ -7147,10 +7837,10 @@
         <v>200</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>488</v>
+        <v>384</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>489</v>
+        <v>385</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -7160,7 +7850,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>426</v>
+        <v>334</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>22</v>
@@ -7169,20 +7859,20 @@
         <v>14</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>344</v>
+        <v>298</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="2">
         <v>200</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>490</v>
+        <v>386</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>491</v>
+        <v>387</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>492</v>
+        <v>388</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -7192,7 +7882,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>427</v>
+        <v>335</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>22</v>
@@ -7201,7 +7891,7 @@
         <v>14</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>345</v>
+        <v>299</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="2">
@@ -7211,10 +7901,10 @@
         <v>200</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>493</v>
+        <v>389</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>494</v>
+        <v>390</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -7224,7 +7914,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>428</v>
+        <v>336</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>22</v>
@@ -7233,10 +7923,10 @@
         <v>20</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>346</v>
+        <v>300</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>347</v>
+        <v>301</v>
       </c>
       <c r="G30" s="2">
         <v>200</v>
@@ -7245,10 +7935,10 @@
         <v>200</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>495</v>
+        <v>391</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>496</v>
+        <v>392</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
